--- a/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E825275-9B7B-40B2-A983-BFF75F4D9304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA0EB0-1B2A-4E79-9922-9AC5F51E9A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6160" yWindow="4200" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -193,6 +193,113 @@
     <rPh sb="0" eb="2">
       <t>ヤマシタ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>memoly_img</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>memolyのロゴの画像</t>
+    <rPh sb="10" eb="12">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>background_img</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ログイン画面の背景</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>reset</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password_reset</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リセット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワードリセット</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>IDPW</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PW</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -810,8 +917,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1709965" y="3268273"/>
-          <a:ext cx="1347107" cy="862527"/>
+          <a:off x="1709965" y="3175909"/>
+          <a:ext cx="1347107" cy="833664"/>
           <a:chOff x="1809750" y="2305050"/>
           <a:chExt cx="1347107" cy="833664"/>
         </a:xfrm>
@@ -1089,8 +1196,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1595665" y="4331609"/>
-          <a:ext cx="793750" cy="355023"/>
+          <a:off x="1595665" y="4204609"/>
+          <a:ext cx="793750" cy="349250"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
         </a:xfrm>
@@ -1227,8 +1334,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2515668" y="4331609"/>
-          <a:ext cx="908050" cy="355023"/>
+          <a:off x="2515668" y="4204609"/>
+          <a:ext cx="908050" cy="349250"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
         </a:xfrm>
@@ -1365,8 +1472,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1581843" y="4839947"/>
-          <a:ext cx="1822077" cy="364532"/>
+          <a:off x="1581843" y="4701402"/>
+          <a:ext cx="1822077" cy="352986"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
         </a:xfrm>
@@ -1503,8 +1610,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1589314" y="5327913"/>
-          <a:ext cx="1829548" cy="355022"/>
+          <a:off x="1589314" y="5172049"/>
+          <a:ext cx="1829548" cy="349250"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
         </a:xfrm>
@@ -2263,6 +2370,312 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115454</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>150091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>226785</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39592269-F3EC-4782-A1DA-CDAA8832F62A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="623454" y="7960591"/>
+          <a:ext cx="6969331" cy="3922980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「３　ログイン」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>がデータベースのデータと一致していればマップ画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「４　リセット」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を消去する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「５　新規登録」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>新規登録画面に遷移する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>「６　パスワード忘れた方はこちら」クリック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワードリセット画面に遷移する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>164352</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>74705</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDC5EA9-A90E-46FF-9E5C-DB2F5FFCC228}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1434352" y="2002117"/>
+          <a:ext cx="672353" cy="537883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>７</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>82176</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>209176</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02891339-AF6D-4FE3-A3CC-8257A02FACDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4108823" y="1441823"/>
+          <a:ext cx="672353" cy="537883"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>８</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2589,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S65" sqref="S65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5796,19 +6209,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="13">
+        <v>1</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="13"/>
-      <c r="H79" s="14"/>
+      <c r="H79" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="I79" s="16"/>
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
-      <c r="O79" s="14"/>
+      <c r="O79" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
@@ -5816,11 +6239,15 @@
       <c r="T79" s="17"/>
       <c r="U79" s="14"/>
       <c r="V79" s="17"/>
-      <c r="W79" s="14"/>
+      <c r="W79" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="X79" s="15"/>
       <c r="Y79" s="15"/>
       <c r="Z79" s="17"/>
-      <c r="AA79" s="14"/>
+      <c r="AA79" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
       <c r="AD79" s="14"/>
@@ -5838,19 +6265,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="13">
+        <v>2</v>
+      </c>
+      <c r="D80" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
+      <c r="H80" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="I80" s="16"/>
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
+      <c r="O80" s="14" t="s">
+        <v>42</v>
+      </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
@@ -5858,11 +6295,15 @@
       <c r="T80" s="17"/>
       <c r="U80" s="14"/>
       <c r="V80" s="17"/>
-      <c r="W80" s="14"/>
+      <c r="W80" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="X80" s="15"/>
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
-      <c r="AA80" s="14"/>
+      <c r="AA80" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
       <c r="AD80" s="14"/>
@@ -5880,19 +6321,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="13">
+        <v>3</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>33</v>
+      </c>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
+      <c r="H81" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="I81" s="16"/>
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
+      <c r="L81" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
+      <c r="O81" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
@@ -5922,19 +6373,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="13">
+        <v>4</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
+      <c r="O82" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
@@ -5964,19 +6425,29 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="13">
+        <v>5</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14"/>
+      <c r="O83" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
@@ -6006,19 +6477,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="13">
+        <v>6</v>
+      </c>
+      <c r="D84" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
+      <c r="O84" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
@@ -6048,16 +6529,24 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="13">
+        <v>7</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14"/>
@@ -6075,7 +6564,9 @@
       <c r="AA85" s="14"/>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
-      <c r="AD85" s="14"/>
+      <c r="AD85" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="AE85" s="15"/>
       <c r="AF85" s="15"/>
       <c r="AG85" s="15"/>
@@ -6090,16 +6581,24 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="13">
+        <v>8</v>
+      </c>
+      <c r="D86" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14"/>
@@ -6117,7 +6616,9 @@
       <c r="AA86" s="14"/>
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
-      <c r="AD86" s="14"/>
+      <c r="AD86" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="AE86" s="15"/>
       <c r="AF86" s="15"/>
       <c r="AG86" s="15"/>
@@ -6132,7 +6633,9 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>9</v>
+      </c>
       <c r="D87" s="14"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -6174,7 +6677,9 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>10</v>
+      </c>
       <c r="D88" s="14"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -6216,7 +6721,9 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>11</v>
+      </c>
       <c r="D89" s="14"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -6258,7 +6765,9 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>12</v>
+      </c>
       <c r="D90" s="14"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -6300,7 +6809,9 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>13</v>
+      </c>
       <c r="D91" s="14"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -6342,7 +6853,9 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>14</v>
+      </c>
       <c r="D92" s="14"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
@@ -6384,7 +6897,9 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>15</v>
+      </c>
       <c r="D93" s="14"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
@@ -6426,7 +6941,9 @@
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>16</v>
+      </c>
       <c r="D94" s="14"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
@@ -6468,7 +6985,9 @@
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
+      <c r="C95" s="13">
+        <v>17</v>
+      </c>
       <c r="D95" s="14"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
@@ -6510,7 +7029,9 @@
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>18</v>
+      </c>
       <c r="D96" s="14"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
@@ -6552,7 +7073,9 @@
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>19</v>
+      </c>
       <c r="D97" s="14"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AEA0EB0-1B2A-4E79-9922-9AC5F51E9A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E055C5A8-E279-410C-AE94-E8EF7CC0FEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="4200" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -283,10 +283,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>text</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>submit</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -295,11 +291,15 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>IDPW</t>
+    <t>PW</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>PW</t>
+    <t>USER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3002,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S65" sqref="S65"/>
+    <sheetView tabSelected="1" topLeftCell="D74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6225,12 +6225,12 @@
       <c r="J79" s="15"/>
       <c r="K79" s="17"/>
       <c r="L79" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M79" s="15"/>
       <c r="N79" s="17"/>
       <c r="O79" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
@@ -6281,12 +6281,12 @@
       <c r="J80" s="15"/>
       <c r="K80" s="17"/>
       <c r="L80" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M80" s="15"/>
       <c r="N80" s="17"/>
       <c r="O80" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
@@ -6302,7 +6302,7 @@
       <c r="Y80" s="15"/>
       <c r="Z80" s="17"/>
       <c r="AA80" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
@@ -6337,12 +6337,12 @@
       <c r="J81" s="15"/>
       <c r="K81" s="17"/>
       <c r="L81" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
@@ -6389,7 +6389,7 @@
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -6441,12 +6441,12 @@
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
@@ -6493,12 +6493,12 @@
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E055C5A8-E279-410C-AE94-E8EF7CC0FEDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE2A4B-C305-4B8E-8F3A-67709E23D08A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -300,6 +300,14 @@
   </si>
   <si>
     <t>varchar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>required</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3002,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D74" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X83" sqref="X83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3112,7 +3120,7 @@
       </c>
       <c r="AG2" s="39"/>
       <c r="AH2" s="40">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="AI2" s="41"/>
       <c r="AJ2" s="41"/>
@@ -6235,9 +6243,13 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
-      <c r="S79" s="14"/>
+      <c r="S79" s="14">
+        <v>8</v>
+      </c>
       <c r="T79" s="17"/>
-      <c r="U79" s="14"/>
+      <c r="U79" s="14">
+        <v>20</v>
+      </c>
       <c r="V79" s="17"/>
       <c r="W79" s="14" t="s">
         <v>45</v>
@@ -6250,7 +6262,9 @@
       </c>
       <c r="AB79" s="15"/>
       <c r="AC79" s="17"/>
-      <c r="AD79" s="14"/>
+      <c r="AD79" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="AE79" s="15"/>
       <c r="AF79" s="15"/>
       <c r="AG79" s="15"/>
@@ -6291,9 +6305,13 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
-      <c r="S80" s="14"/>
+      <c r="S80" s="14">
+        <v>8</v>
+      </c>
       <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
+      <c r="U80" s="14">
+        <v>20</v>
+      </c>
       <c r="V80" s="17"/>
       <c r="W80" s="14" t="s">
         <v>45</v>
@@ -6306,7 +6324,9 @@
       </c>
       <c r="AB80" s="15"/>
       <c r="AC80" s="17"/>
-      <c r="AD80" s="14"/>
+      <c r="AD80" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="AE80" s="15"/>
       <c r="AF80" s="15"/>
       <c r="AG80" s="15"/>
@@ -6441,13 +6461,11 @@
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
-      <c r="O83" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="O83" s="14"/>
       <c r="P83" s="15"/>
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
@@ -6493,13 +6511,11 @@
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="O84" s="14"/>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE2A4B-C305-4B8E-8F3A-67709E23D08A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2AAA9F-EC8B-479A-802F-E939979823CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2619,15 +2630,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
+      <xdr:colOff>44822</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>82176</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>37353</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2642,15 +2653,17 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4108823" y="1441823"/>
-          <a:ext cx="672353" cy="537883"/>
+          <a:off x="4108822" y="1415676"/>
+          <a:ext cx="4717677" cy="3074681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
+        <a:ln w="28575" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2679,6 +2692,35 @@
             </a:rPr>
             <a:t>８</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>暫定</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3010,8 +3052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X83" sqref="X83"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2AAA9F-EC8B-479A-802F-E939979823CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA9A55-9C6D-4262-8394-02D33CC4CCC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -369,6 +369,20 @@
       <charset val="128"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
@@ -694,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -775,15 +789,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,9 +809,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,8 +818,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1843,15 +1880,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1873,7 +1904,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>背景を写真すると良い</a:t>
           </a:r>
         </a:p>
@@ -1885,13 +1916,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>172356</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>117928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>9071</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1907,21 +1938,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4236356" y="2975428"/>
+          <a:off x="4236356" y="2022928"/>
           <a:ext cx="4408715" cy="997857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1943,7 +1968,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
             <a:t>キャラクターを入れると良い</a:t>
           </a:r>
         </a:p>
@@ -2445,10 +2470,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>「３　ログイン」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2482,10 +2507,10 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>「４　リセット」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2519,10 +2544,10 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>「５　新規登録」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2540,10 +2565,10 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
             <a:t>「６　パスワード忘れた方はこちら」クリック</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
         </a:p>
         <a:p>
           <a:r>
@@ -2630,15 +2655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>44822</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>82176</xdr:rowOff>
+      <xdr:colOff>99250</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>27749</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>81643</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2653,8 +2678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4108822" y="1415676"/>
-          <a:ext cx="4717677" cy="3074681"/>
+          <a:off x="4163250" y="1551749"/>
+          <a:ext cx="1506393" cy="734252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2685,7 +2710,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2693,7 +2718,7 @@
             <a:t>８</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2701,7 +2726,7 @@
             <a:t>(</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
@@ -2709,14 +2734,14 @@
             <a:t>暫定</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
@@ -3053,7 +3078,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD32" sqref="AD32"/>
+      <selection activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3074,11 +3099,11 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="28" t="s">
         <v>21</v>
       </c>
@@ -3090,10 +3115,10 @@
       <c r="T1" s="28"/>
       <c r="U1" s="28"/>
       <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="W1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="28"/>
+      <c r="X1" s="39"/>
       <c r="Y1" s="28" t="s">
         <v>23</v>
       </c>
@@ -3103,19 +3128,19 @@
       <c r="AC1" s="28"/>
       <c r="AD1" s="28"/>
       <c r="AE1" s="28"/>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="35" t="s">
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="33"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
@@ -3128,48 +3153,48 @@
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
       <c r="J2" s="24"/>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37" t="s">
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="38">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="35">
         <v>45082</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="39" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="40">
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="36">
         <v>45084</v>
       </c>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="42"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="38"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25"/>
@@ -3182,38 +3207,38 @@
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="27"/>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="34"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="31"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3262,7 +3287,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="46" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -4686,7 +4711,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="46" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -6110,7 +6135,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="46" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -6196,57 +6221,57 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="48"/>
+      <c r="D78" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="E78" s="50"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="16"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="17"/>
-      <c r="L78" s="14" t="s">
+      <c r="I78" s="51"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="15"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="14" t="s">
+      <c r="M78" s="50"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="17"/>
-      <c r="S78" s="14" t="s">
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="52"/>
+      <c r="S78" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="17"/>
-      <c r="U78" s="14" t="s">
+      <c r="T78" s="52"/>
+      <c r="U78" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="17"/>
-      <c r="W78" s="14" t="s">
+      <c r="V78" s="52"/>
+      <c r="W78" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="15"/>
-      <c r="Y78" s="15"/>
-      <c r="Z78" s="17"/>
-      <c r="AA78" s="14" t="s">
+      <c r="X78" s="50"/>
+      <c r="Y78" s="50"/>
+      <c r="Z78" s="52"/>
+      <c r="AA78" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="15"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="14" t="s">
+      <c r="AB78" s="50"/>
+      <c r="AC78" s="52"/>
+      <c r="AD78" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="15"/>
-      <c r="AF78" s="15"/>
+      <c r="AE78" s="50"/>
+      <c r="AF78" s="50"/>
       <c r="AG78" s="15"/>
       <c r="AH78" s="15"/>
       <c r="AI78" s="15"/>

--- a/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
+++ b/doc/外部設計書/外部設計書_F2_fireworks_ログイン.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\外部設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECA9A55-9C6D-4262-8394-02D33CC4CCC4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019E2AA-C8E9-409A-88C4-B85E74AF70F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -319,6 +319,14 @@
   </si>
   <si>
     <t>required</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>height: 844px;</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>width: 390px;</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -758,6 +766,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -785,7 +810,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -803,10 +840,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -818,43 +861,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,12 +916,10 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
         <a:ln>
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -951,14 +957,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>185965</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127909</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>155120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9072</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9073</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>36284</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -973,7 +979,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1709965" y="3175909"/>
+          <a:off x="1709965" y="3584120"/>
           <a:ext cx="1347107" cy="833664"/>
           <a:chOff x="1809750" y="2305050"/>
           <a:chExt cx="1347107" cy="833664"/>
@@ -1230,14 +1236,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>71665</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>13609</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>103415</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>172359</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9070</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1252,7 +1258,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1595665" y="4204609"/>
+          <a:off x="1595665" y="4612820"/>
           <a:ext cx="793750" cy="349250"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
@@ -1368,14 +1374,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>229668</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>13609</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>121718</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>172359</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9070</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1390,7 +1396,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2515668" y="4204609"/>
+          <a:off x="2515668" y="4612820"/>
           <a:ext cx="908050" cy="349250"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
@@ -1506,14 +1512,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>57843</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>129402</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>156613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>101920</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>101388</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>128599</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1528,7 +1534,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1581843" y="4701402"/>
+          <a:off x="1581843" y="5109613"/>
           <a:ext cx="1822077" cy="352986"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
@@ -1644,14 +1650,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28549</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>116862</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>187299</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24010</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1666,7 +1672,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1589314" y="5172049"/>
+          <a:off x="1589314" y="5580260"/>
           <a:ext cx="1829548" cy="349250"/>
           <a:chOff x="1860550" y="3295650"/>
           <a:chExt cx="793750" cy="349250"/>
@@ -1776,76 +1782,6 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>72571</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>99786</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>235857</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="テキスト ボックス 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A46BE4-C29E-439E-A846-8F62800AA852}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1342571" y="1623786"/>
-          <a:ext cx="2195286" cy="1133928"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
-              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
-            </a:rPr>
-            <a:t>memoly</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
-            <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1980,14 +1916,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>156881</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>164352</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>67234</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>119529</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2002,8 +1938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1426881" y="3272117"/>
-          <a:ext cx="672353" cy="537883"/>
+          <a:off x="1426881" y="3620563"/>
+          <a:ext cx="672353" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2053,14 +1989,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>164352</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>74705</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2075,8 +2011,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1434352" y="3675529"/>
-          <a:ext cx="672353" cy="537883"/>
+          <a:off x="1434352" y="4016505"/>
+          <a:ext cx="672353" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2126,14 +2062,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>231587</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>141940</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>29883</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57094</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2148,8 +2084,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247587" y="4153647"/>
-          <a:ext cx="672353" cy="537883"/>
+          <a:off x="1247587" y="4483417"/>
+          <a:ext cx="672353" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2199,14 +2135,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>74705</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>239058</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>7471</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2221,8 +2157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3376705" y="4131235"/>
-          <a:ext cx="672353" cy="537883"/>
+          <a:off x="3376705" y="4461005"/>
+          <a:ext cx="672353" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2272,14 +2208,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>239058</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>79505</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>149411</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7471</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2294,8 +2230,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1255058" y="4713941"/>
-          <a:ext cx="672353" cy="537883"/>
+          <a:off x="1255058" y="5032505"/>
+          <a:ext cx="672353" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2345,14 +2281,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>231587</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>116857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>141940</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72034</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2367,8 +2303,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1247587" y="5139764"/>
-          <a:ext cx="672353" cy="537883"/>
+          <a:off x="1247587" y="5450857"/>
+          <a:ext cx="672353" cy="526677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2751,6 +2687,147 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>90715</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>104786</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>126998</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31F6D68-8465-4A0B-B999-42EDED4DC4D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1614715" y="1914069"/>
+          <a:ext cx="1792071" cy="1451429"/>
+          <a:chOff x="4662715" y="2794000"/>
+          <a:chExt cx="2195286" cy="1778000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="楕円 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6875651-687D-4DD3-8DF8-B95956952159}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4871358" y="2794000"/>
+            <a:ext cx="1778000" cy="1778000"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="テキスト ボックス 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A46BE4-C29E-439E-A846-8F62800AA852}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4662715" y="3116036"/>
+            <a:ext cx="2195286" cy="1133928"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+                <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+              </a:rPr>
+              <a:t>memoly</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:latin typeface="Algerian" panose="04020705040A02060702" pitchFamily="82" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3077,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA84" sqref="AA84"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3087,158 +3164,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="39" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="28" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="39" t="s">
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="44" t="s">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="32" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="33"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="34" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="35">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="47">
         <v>45082</v>
       </c>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="45" t="s">
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="36">
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49">
         <v>45084</v>
       </c>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="38"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="51"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="41" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="31"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -3287,7 +3364,7 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -3839,7 +3916,9 @@
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
+      <c r="T19" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="U19" s="8"/>
       <c r="V19" s="8"/>
       <c r="W19" s="8"/>
@@ -3879,7 +3958,9 @@
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
+      <c r="T20" s="8" t="s">
+        <v>49</v>
+      </c>
       <c r="U20" s="8"/>
       <c r="V20" s="8"/>
       <c r="W20" s="8"/>
@@ -4711,7 +4792,7 @@
     </row>
     <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C41" s="4"/>
@@ -6135,7 +6216,7 @@
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
-      <c r="B76" s="46" t="s">
+      <c r="B76" s="19" t="s">
         <v>10</v>
       </c>
       <c r="C76" s="4"/>
@@ -6221,57 +6302,57 @@
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49" t="s">
+      <c r="C78" s="21"/>
+      <c r="D78" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="48"/>
-      <c r="H78" s="49" t="s">
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="51"/>
-      <c r="J78" s="50"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="49" t="s">
+      <c r="I78" s="24"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M78" s="50"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="49" t="s">
+      <c r="M78" s="23"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P78" s="50"/>
-      <c r="Q78" s="50"/>
-      <c r="R78" s="52"/>
-      <c r="S78" s="49" t="s">
+      <c r="P78" s="23"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="T78" s="52"/>
-      <c r="U78" s="49" t="s">
+      <c r="T78" s="25"/>
+      <c r="U78" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V78" s="52"/>
-      <c r="W78" s="49" t="s">
+      <c r="V78" s="25"/>
+      <c r="W78" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="X78" s="50"/>
-      <c r="Y78" s="50"/>
-      <c r="Z78" s="52"/>
-      <c r="AA78" s="49" t="s">
+      <c r="X78" s="23"/>
+      <c r="Y78" s="23"/>
+      <c r="Z78" s="25"/>
+      <c r="AA78" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="AB78" s="50"/>
-      <c r="AC78" s="52"/>
-      <c r="AD78" s="49" t="s">
+      <c r="AB78" s="23"/>
+      <c r="AC78" s="25"/>
+      <c r="AD78" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="AE78" s="50"/>
-      <c r="AF78" s="50"/>
+      <c r="AE78" s="23"/>
+      <c r="AF78" s="23"/>
       <c r="AG78" s="15"/>
       <c r="AH78" s="15"/>
       <c r="AI78" s="15"/>
